--- a/data/trans_dic/P64D1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.260437499373049</v>
+        <v>0.2604374993730491</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3696804109704566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3074760414673055</v>
+        <v>0.3074760414673054</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2145464123428507</v>
+        <v>0.2149218185016759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3204710889097268</v>
+        <v>0.3176369514936325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2703692056635213</v>
+        <v>0.2754843318963276</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3132801751214284</v>
+        <v>0.3119868490971269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4210533528977588</v>
+        <v>0.4204512785850572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.34341037428578</v>
+        <v>0.3454947035796175</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2171793003108027</v>
+        <v>0.2121524651122103</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3744474824905038</v>
+        <v>0.3736932456261693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2902679256769974</v>
+        <v>0.2936601560760906</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2952710642480956</v>
+        <v>0.2930070407872565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4630152929408179</v>
+        <v>0.4578341319857042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3524630594077136</v>
+        <v>0.3549590222287263</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.2814287293858317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2207160991901703</v>
+        <v>0.2207160991901704</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1326545552483517</v>
+        <v>0.1282838252470203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2403651613742608</v>
+        <v>0.2374427518691918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1902687918248347</v>
+        <v>0.1891827632061873</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2213345604861525</v>
+        <v>0.224758599912882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3281587656585768</v>
+        <v>0.3246843633975611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2574815322317867</v>
+        <v>0.2520124253805866</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2796540092945082</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4065239788621399</v>
+        <v>0.40652397886214</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3385758739996183</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2374385833127576</v>
+        <v>0.2410187534434595</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3638958944198781</v>
+        <v>0.367854134417344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.309194817831799</v>
+        <v>0.309561860005826</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.324330016910739</v>
+        <v>0.3257835846298325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4465466836488054</v>
+        <v>0.4527585089335429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3674579557093024</v>
+        <v>0.3710360349873171</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3749903532407272</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>78456</v>
+        <v>78593</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>88618</v>
+        <v>87835</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>173633</v>
+        <v>176918</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>114561</v>
+        <v>114088</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>116432</v>
+        <v>116265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>220540</v>
+        <v>221879</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>134837</v>
+        <v>131716</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>165251</v>
+        <v>164918</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>308315</v>
+        <v>311918</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>183321</v>
+        <v>181915</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>204337</v>
+        <v>202051</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>374377</v>
+        <v>377028</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54706</v>
+        <v>52903</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79830</v>
+        <v>78860</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>141657</v>
+        <v>140849</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91276</v>
+        <v>92688</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>108988</v>
+        <v>107834</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>191698</v>
+        <v>187626</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120919</v>
+        <v>122742</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>160702</v>
+        <v>162450</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>294007</v>
+        <v>294356</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>165170</v>
+        <v>165910</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>197201</v>
+        <v>199944</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>349408</v>
+        <v>352810</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
     </row>
     <row r="24">
